--- a/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\src\app-catalog-main\installations-no-std\isp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Properties_Predictive</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>TeradataDS</t>
+  </si>
+  <si>
+    <t>matrixColorRelFormula</t>
+  </si>
+  <si>
+    <t>LIB_ISP.updateMatrixColorRelation</t>
   </si>
 </sst>
 </file>
@@ -373,6 +379,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10972800" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -671,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,9 +739,10 @@
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,8 +751,9 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -716,8 +772,11 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -732,6 +791,9 @@
       </c>
       <c r="F3" t="s">
         <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Properties_Predictive" sheetId="1" r:id="rId1"/>
     <sheet name="Fields definition" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Properties_Predictive</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>LIB_ISP.updateMatrixColorRelation</t>
+  </si>
+  <si>
+    <t>DataFieldMatrixFormula</t>
+  </si>
+  <si>
+    <t>LIB_ISP.getDataFieldListForMatrix</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -205,6 +211,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,6 +442,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10972800" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12544425" cy="9715500"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -725,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,9 +795,10 @@
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,8 +808,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -775,8 +832,11 @@
       <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -794,6 +854,9 @@
       </c>
       <c r="G3" t="s">
         <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
@@ -136,7 +136,7 @@
     <t>DataFieldMatrixFormula</t>
   </si>
   <si>
-    <t>LIB_ISP.getDataFieldListForMatrix</t>
+    <t>LIB_EW.getDataFieldListForMatrix</t>
   </si>
 </sst>
 </file>
@@ -490,6 +490,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12544425" cy="9715500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13963650" cy="9915525"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -782,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +858,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/16_Inst_Properties_Predictive.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Properties_Predictive" sheetId="1" r:id="rId1"/>
     <sheet name="Fields definition" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Properties_Predictive</t>
   </si>
@@ -137,12 +137,60 @@
   </si>
   <si>
     <t>LIB_EW.getDataFieldListForMatrix</t>
+  </si>
+  <si>
+    <t>LastModFilterModeNumber</t>
+  </si>
+  <si>
+    <t>LastModFilterModePeriod</t>
+  </si>
+  <si>
+    <t>LastModFixedNumber</t>
+  </si>
+  <si>
+    <t>PeriodGranularity</t>
+  </si>
+  <si>
+    <t>NTile</t>
+  </si>
+  <si>
+    <t>CategoryLabelFormula</t>
+  </si>
+  <si>
+    <t>DefaultMatrixConf</t>
+  </si>
+  <si>
+    <t>GetMaxColorFormula</t>
+  </si>
+  <si>
+    <t>DefaultVMConf</t>
+  </si>
+  <si>
+    <t>YarnConfigurationJson</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>LIB_Default.getMatrixCategoryLabelKeyList</t>
+  </si>
+  <si>
+    <t>Matrix.getDefaultMatrixConfiguration</t>
+  </si>
+  <si>
+    <t>LIB_EWS.getMaxColor</t>
+  </si>
+  <si>
+    <t>LIB_EWS.getDefaultNodeGroupsConf</t>
+  </si>
+  <si>
+    <t>{"spark.executor.instances":"5","spark.executor.memory":"5g","spark.executor.cores":"30"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,17 +211,18 @@
       <name val="Trebuchet MS"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Trebuchet MS"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,17 +250,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,6 +576,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13963650" cy="9915525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -641,6 +735,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -676,6 +787,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -828,37 +956,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -866,25 +1019,61 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -892,19 +1081,55 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1227,7 @@
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -1012,8 +1237,8 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
